--- a/helper_files/feats_importance_sorted_by_gain_with_origin_tables.xlsx
+++ b/helper_files/feats_importance_sorted_by_gain_with_origin_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijul\Documents\coding\Work\Kaggle\Home Credit Risk 2024 - Stability\Home_Credit_Kaggle\helper_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06888F8A-3105-4F92-A815-AB946B075E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1EAF19-AC3D-4F58-BC79-7299A1A2E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3844,16 +3844,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3881,6 +3871,16 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3965,56 +3965,389 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1782.4</c:v>
+                    <c:v>2056.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1747.6</c:v>
+                    <c:v>751.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1392.2</c:v>
+                    <c:v>1567.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>588.6</c:v>
+                    <c:v>3817.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>536.4</c:v>
+                    <c:v>1938.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1416.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1700.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1524.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>894.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1403.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1540.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1453.4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1590.8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1362.6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1479.6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1104.4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1282.6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1436.2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1316</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1276.2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1406.8</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1264.4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1347.8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>848</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>937.8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1003.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1260.2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1000.4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>978.6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>990.2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>867</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1193.2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1054.8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>960.4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>823.4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>991.8</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>797</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1005.6</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>974.6</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>963.6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>800.2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>Date of most recent rejected application by the applicant.</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>Cancellation reason of the last application.</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Initial transaction amount of the credit application.</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Maximum annuity previously obtained by client.</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Credit amount on last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Amount of downpayment.</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Client's primary income amount.</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Date of last payment made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Date of approval on client's most recent previous application.</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Credit amount from the client's last application.</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>max_amount_4527230A</c:v>
+                    <c:v>lastrejectdate_50D</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>mean_amount_4527230A</c:v>
+                    <c:v>min_rejectreason_755M</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>min_amount_4527230A</c:v>
+                    <c:v>lastcancelreason_561M</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>mean_deductiondate_4917603D</c:v>
+                    <c:v>min_cancelreason_3545846M</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>min_deductiondate_4917603D</c:v>
+                    <c:v>max_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mean_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mean_outstandingdebt_522A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mean_tenor_203L</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>mean_currdebt_94A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>inittransactionamount_650A</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>min_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mean_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>max_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>lastapprcommoditycat_1041M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>maxannuity_159A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>min_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lastrejectcredamount_222A</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lastrejectcommoditycat_161M</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mean_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>min_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>max_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>downpmt_116A</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>max_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>min_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>mean_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>mean_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>mean_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>maininc_215A</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>min_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>min_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>max_approvaldate_319D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>dtlastpmtallstes_4499206D</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>lastapprdate_640D</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>max_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>max_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>lastapprcredamount_781A</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>min_creationdate_885D</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4025,21 +4358,132 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>65327.815754419098</c:v>
+                  <c:v>148171.641801891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44416.138968549603</c:v>
+                  <c:v>114229.073754978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25111.662946229801</c:v>
+                  <c:v>104143.196189546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9900.32559993416</c:v>
+                  <c:v>97435.782088136606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9271.0760333746603</c:v>
+                  <c:v>66749.896025245602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58816.349503653699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56610.3641077391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50426.492714400498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49778.004505163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40990.227360126701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31937.311326250401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29294.952613267498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25474.958857708501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24604.786483953099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22915.3641412258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20024.775250743998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19578.589402526399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18960.342929979699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18913.5364791475</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18881.2614795919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18875.800535583399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17748.440369739601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17446.894762793101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16992.312776508101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16134.4618531949</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16071.0917006414</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14708.342745653499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14646.253214484401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13829.0063087784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13773.2024454692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13569.567044048301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13255.0200992876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13133.769336136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13025.8605175271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12891.043395594501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12719.5658687176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12266.4693332038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12240.823106517901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12079.227194458201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11311.154304244499</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10589.5301558017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10176.6361694143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,56 +4535,389 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1782.4</c:v>
+                    <c:v>2056.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1747.6</c:v>
+                    <c:v>751.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1392.2</c:v>
+                    <c:v>1567.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>588.6</c:v>
+                    <c:v>3817.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>536.4</c:v>
+                    <c:v>1938.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1416.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1700.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1524.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>894.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1403.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1540.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1453.4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1590.8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1362.6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1479.6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1104.4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1282.6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1436.2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1316</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1276.2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1406.8</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1264.4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1347.8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>848</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>937.8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1003.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1260.2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1000.4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>978.6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>990.2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>867</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1193.2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1054.8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>960.4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>823.4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>991.8</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>797</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1005.6</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>974.6</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>963.6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>800.2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>Date of most recent rejected application by the applicant.</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>Cancellation reason of the last application.</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Initial transaction amount of the credit application.</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Maximum annuity previously obtained by client.</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Credit amount on last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Amount of downpayment.</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Client's primary income amount.</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Date of last payment made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Date of approval on client's most recent previous application.</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Credit amount from the client's last application.</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>max_amount_4527230A</c:v>
+                    <c:v>lastrejectdate_50D</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>mean_amount_4527230A</c:v>
+                    <c:v>min_rejectreason_755M</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>min_amount_4527230A</c:v>
+                    <c:v>lastcancelreason_561M</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>mean_deductiondate_4917603D</c:v>
+                    <c:v>min_cancelreason_3545846M</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>min_deductiondate_4917603D</c:v>
+                    <c:v>max_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mean_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mean_outstandingdebt_522A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mean_tenor_203L</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>mean_currdebt_94A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>inittransactionamount_650A</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>min_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mean_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>max_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>lastapprcommoditycat_1041M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>maxannuity_159A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>min_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lastrejectcredamount_222A</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lastrejectcommoditycat_161M</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mean_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>min_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>max_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>downpmt_116A</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>max_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>min_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>mean_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>mean_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>mean_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>maininc_215A</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>min_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>min_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>max_approvaldate_319D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>dtlastpmtallstes_4499206D</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>lastapprdate_640D</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>max_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>max_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>lastapprcredamount_781A</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>min_creationdate_885D</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4151,21 +4928,132 @@
               <c:f>feats_importance_sorted_by_gain!$E$2:$E$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4217,56 +5105,389 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1782.4</c:v>
+                    <c:v>2056.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1747.6</c:v>
+                    <c:v>751.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1392.2</c:v>
+                    <c:v>1567.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>588.6</c:v>
+                    <c:v>3817.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>536.4</c:v>
+                    <c:v>1938.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1416.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1700.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1524.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>894.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1403.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1540.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1453.4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1590.8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1362.6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1479.6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1104.4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1282.6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1436.2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1316</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1276.2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1406.8</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1264.4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1347.8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>848</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>937.8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1003.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1260.2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1000.4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>978.6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>990.2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>867</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1193.2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1054.8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>960.4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>823.4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>991.8</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>797</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1005.6</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>974.6</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>963.6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>800.2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>Date of most recent rejected application by the applicant.</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>Cancellation reason of the last application.</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Initial transaction amount of the credit application.</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Maximum annuity previously obtained by client.</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Credit amount on last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Amount of downpayment.</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Client's primary income amount.</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Date of last payment made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Date of approval on client's most recent previous application.</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Credit amount from the client's last application.</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>max_amount_4527230A</c:v>
+                    <c:v>lastrejectdate_50D</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>mean_amount_4527230A</c:v>
+                    <c:v>min_rejectreason_755M</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>min_amount_4527230A</c:v>
+                    <c:v>lastcancelreason_561M</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>mean_deductiondate_4917603D</c:v>
+                    <c:v>min_cancelreason_3545846M</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>min_deductiondate_4917603D</c:v>
+                    <c:v>max_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mean_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mean_outstandingdebt_522A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mean_tenor_203L</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>mean_currdebt_94A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>inittransactionamount_650A</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>min_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mean_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>max_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>lastapprcommoditycat_1041M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>maxannuity_159A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>min_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lastrejectcredamount_222A</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lastrejectcommoditycat_161M</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mean_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>min_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>max_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>downpmt_116A</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>max_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>min_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>mean_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>mean_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>mean_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>maininc_215A</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>min_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>min_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>max_approvaldate_319D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>dtlastpmtallstes_4499206D</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>lastapprdate_640D</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>max_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>max_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>lastapprcredamount_781A</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>min_creationdate_885D</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4277,21 +5498,132 @@
               <c:f>feats_importance_sorted_by_gain!$F$2:$F$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,56 +5675,389 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1782.4</c:v>
+                    <c:v>2056.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1747.6</c:v>
+                    <c:v>751.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1392.2</c:v>
+                    <c:v>1567.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>588.6</c:v>
+                    <c:v>3817.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>536.4</c:v>
+                    <c:v>1938.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1416.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1700.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1524.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>894.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1403.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1540.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1453.4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1590.8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1362.6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1479.6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1104.4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1282.6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1436.2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1316</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1276.2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1406.8</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1264.4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1347.8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>848</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>937.8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1003.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1260.2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1000.4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>978.6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>990.2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>867</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1193.2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1054.8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>960.4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>823.4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>991.8</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>797</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1005.6</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>974.6</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>963.6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>800.2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>Date of most recent rejected application by the applicant.</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>Cancellation reason of the last application.</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Initial transaction amount of the credit application.</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Maximum annuity previously obtained by client.</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Credit amount on last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Amount of downpayment.</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Client's primary income amount.</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Date of last payment made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Date of approval on client's most recent previous application.</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Credit amount from the client's last application.</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>max_amount_4527230A</c:v>
+                    <c:v>lastrejectdate_50D</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>mean_amount_4527230A</c:v>
+                    <c:v>min_rejectreason_755M</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>min_amount_4527230A</c:v>
+                    <c:v>lastcancelreason_561M</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>mean_deductiondate_4917603D</c:v>
+                    <c:v>min_cancelreason_3545846M</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>min_deductiondate_4917603D</c:v>
+                    <c:v>max_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mean_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mean_outstandingdebt_522A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mean_tenor_203L</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>mean_currdebt_94A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>inittransactionamount_650A</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>min_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mean_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>max_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>lastapprcommoditycat_1041M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>maxannuity_159A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>min_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lastrejectcredamount_222A</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lastrejectcommoditycat_161M</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mean_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>min_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>max_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>downpmt_116A</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>max_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>min_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>mean_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>mean_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>mean_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>maininc_215A</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>min_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>min_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>max_approvaldate_319D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>dtlastpmtallstes_4499206D</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>lastapprdate_640D</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>max_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>max_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>lastapprcredamount_781A</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>min_creationdate_885D</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4403,21 +6068,132 @@
               <c:f>feats_importance_sorted_by_gain!$G$2:$G$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.5</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>203</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>144.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4469,56 +6245,389 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1782.4</c:v>
+                    <c:v>2056.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1747.6</c:v>
+                    <c:v>751.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1392.2</c:v>
+                    <c:v>1567.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>588.6</c:v>
+                    <c:v>3817.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>536.4</c:v>
+                    <c:v>1938.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1416.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1700.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1524.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>894.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1403.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1540.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1453.4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1590.8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1362.6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1479.6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1104.4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1282.6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1436.2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1316</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1276.2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1406.8</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1264.4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1347.8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>848</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>937.8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1003.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1260.2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1000.4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>978.6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>990.2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>867</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1193.2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1054.8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>960.4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>823.4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>991.8</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>797</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1005.6</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>974.6</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>963.6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>800.2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>Date of most recent rejected application by the applicant.</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>Cancellation reason of the last application.</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Initial transaction amount of the credit application.</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Maximum annuity previously obtained by client.</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Credit amount on last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Amount of downpayment.</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Client's primary income amount.</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Date of last payment made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Date of approval on client's most recent previous application.</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Credit amount from the client's last application.</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>max_amount_4527230A</c:v>
+                    <c:v>lastrejectdate_50D</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>mean_amount_4527230A</c:v>
+                    <c:v>min_rejectreason_755M</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>min_amount_4527230A</c:v>
+                    <c:v>lastcancelreason_561M</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>mean_deductiondate_4917603D</c:v>
+                    <c:v>min_cancelreason_3545846M</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>min_deductiondate_4917603D</c:v>
+                    <c:v>max_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mean_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mean_outstandingdebt_522A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mean_tenor_203L</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>mean_currdebt_94A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>inittransactionamount_650A</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>min_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mean_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>max_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>lastapprcommoditycat_1041M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>maxannuity_159A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>min_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lastrejectcredamount_222A</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lastrejectcommoditycat_161M</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mean_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>min_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>max_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>downpmt_116A</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>max_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>min_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>mean_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>mean_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>mean_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>maininc_215A</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>min_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>min_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>max_approvaldate_319D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>dtlastpmtallstes_4499206D</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>lastapprdate_640D</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>max_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>max_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>lastapprcredamount_781A</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>min_creationdate_885D</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4529,21 +6638,132 @@
               <c:f>feats_importance_sorted_by_gain!$H$2:$H$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>67110.2157544191</c:v>
+                  <c:v>150227.84180189102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46163.738968549602</c:v>
+                  <c:v>114980.273754978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26503.862946229801</c:v>
+                  <c:v>105710.996189546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10488.92559993416</c:v>
+                  <c:v>101253.1820881366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9807.4760333746599</c:v>
+                  <c:v>68688.096025245599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60233.149503653702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58311.164107739103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51453.492714400498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51302.804505163003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41885.027360126704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33340.911326250403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30835.152613267499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26928.358857708503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26195.586483953099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24277.964141225799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21504.375250743997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20682.9894025264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20242.942929979698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20349.736479147501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20197.2614795919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20152.0005355834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19155.2403697396</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18711.294762793103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18340.1127765081</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16982.461853194902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17008.891700641401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15712.142745653498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15906.453214484402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14829.4063087784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14751.8024454692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14559.767044048302</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14122.0200992876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14326.969336136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14080.6605175271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13851.443395594501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13542.9658687176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13258.2693332038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13037.823106517901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13084.827194458201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12285.7543042445</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11553.1301558017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10976.8361694143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4595,56 +6815,389 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1782.4</c:v>
+                    <c:v>2056.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1747.6</c:v>
+                    <c:v>751.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1392.2</c:v>
+                    <c:v>1567.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>588.6</c:v>
+                    <c:v>3817.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>536.4</c:v>
+                    <c:v>1938.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1416.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1700.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1524.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>894.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1403.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1540.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1453.4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1590.8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1362.6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1479.6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1104.4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1282.6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1436.2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1316</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1276.2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1406.8</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1264.4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1347.8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>848</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>937.8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1003.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1260.2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1000.4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>978.6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>990.2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>867</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1193.2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1054.8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>960.4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>823.4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>991.8</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>797</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1005.6</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>974.6</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>963.6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>800.2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>Date of most recent rejected application by the applicant.</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>Cancellation reason of the last application.</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Initial transaction amount of the credit application.</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Maximum annuity previously obtained by client.</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Credit amount on last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Amount of downpayment.</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Client's primary income amount.</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Date of last payment made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Date of approval on client's most recent previous application.</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Credit amount from the client's last application.</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>max_amount_4527230A</c:v>
+                    <c:v>lastrejectdate_50D</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>mean_amount_4527230A</c:v>
+                    <c:v>min_rejectreason_755M</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>min_amount_4527230A</c:v>
+                    <c:v>lastcancelreason_561M</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>mean_deductiondate_4917603D</c:v>
+                    <c:v>min_cancelreason_3545846M</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>min_deductiondate_4917603D</c:v>
+                    <c:v>max_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mean_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mean_outstandingdebt_522A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mean_tenor_203L</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>mean_currdebt_94A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>inittransactionamount_650A</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>min_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mean_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>max_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>lastapprcommoditycat_1041M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>maxannuity_159A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>min_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lastrejectcredamount_222A</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lastrejectcommoditycat_161M</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mean_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>min_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>max_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>downpmt_116A</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>max_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>min_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>mean_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>mean_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>mean_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>maininc_215A</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>min_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>min_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>max_approvaldate_319D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>dtlastpmtallstes_4499206D</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>lastapprdate_640D</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>max_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>max_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>lastapprcredamount_781A</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>min_creationdate_885D</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4655,21 +7208,132 @@
               <c:f>feats_importance_sorted_by_gain!$I$2:$I$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4725,56 +7389,389 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1782.4</c:v>
+                    <c:v>2056.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1747.6</c:v>
+                    <c:v>751.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1392.2</c:v>
+                    <c:v>1567.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>588.6</c:v>
+                    <c:v>3817.4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>536.4</c:v>
+                    <c:v>1938.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1416.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1700.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1027</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1524.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>894.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1403.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1540.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1453.4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1590.8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1362.6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1479.6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1104.4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1282.6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1436.2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1316</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1276.2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1406.8</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1264.4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1347.8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>848</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>937.8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1003.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1260.2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1000.4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>978.6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>990.2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>867</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1193.2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1054.8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>960.4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>823.4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>991.8</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>797</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1005.6</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>974.6</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>963.6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>800.2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>Date of most recent rejected application by the applicant.</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>Cancellation reason of the last application.</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Initial transaction amount of the credit application.</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Maximum annuity previously obtained by client.</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Credit amount on last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Amount of downpayment.</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Client's primary income amount.</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Date of last payment made by the applicant.</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Date of approval on client's most recent previous application.</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Credit amount from the client's last application.</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>max_amount_4527230A</c:v>
+                    <c:v>lastrejectdate_50D</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>mean_amount_4527230A</c:v>
+                    <c:v>min_rejectreason_755M</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>min_amount_4527230A</c:v>
+                    <c:v>lastcancelreason_561M</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>mean_deductiondate_4917603D</c:v>
+                    <c:v>min_cancelreason_3545846M</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>min_deductiondate_4917603D</c:v>
+                    <c:v>max_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mean_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mean_outstandingdebt_522A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mean_tenor_203L</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>mean_currdebt_94A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>inittransactionamount_650A</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>min_employedfrom_700D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mean_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>max_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>lastapprcommoditycat_1041M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>maxannuity_159A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>min_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lastrejectcredamount_222A</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lastrejectcommoditycat_161M</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mean_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>min_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>max_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>downpmt_116A</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>max_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>min_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>mean_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>mean_dtlastpmt_581D</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>mean_creationdate_885D</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>maininc_215A</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>min_annuity_853A</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>min_firstnonzeroinstldate_307D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>max_approvaldate_319D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>dtlastpmtallstes_4499206D</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>lastapprdate_640D</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>max_credamount_590A</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>max_mainoccupationinc_437A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>lastapprcredamount_781A</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>min_creationdate_885D</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4785,7 +7782,7 @@
               <c:f>feats_importance_sorted_by_gain!$J$2:$J$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4799,6 +7796,117 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5150,21 +8258,132 @@
               <c:f>feats_importance_sorted_by_gain!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1782.4</c:v>
+                  <c:v>2056.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1747.6</c:v>
+                  <c:v>751.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1392.2</c:v>
+                  <c:v>1567.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>588.6</c:v>
+                  <c:v>3817.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.4</c:v>
+                  <c:v>1938.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1416.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1524.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>894.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1403.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1540.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1453.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1590.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1362.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1479.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1104.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1282.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1436.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1276.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1406.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1264.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1347.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>937.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1003.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1260.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>978.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>990.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1193.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1054.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>960.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>823.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>991.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1005.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>974.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>963.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>800.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5174,21 +8393,132 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>65327.815754419098</c:v>
+                  <c:v>148171.641801891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44416.138968549603</c:v>
+                  <c:v>114229.073754978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25111.662946229801</c:v>
+                  <c:v>104143.196189546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9900.32559993416</c:v>
+                  <c:v>97435.782088136606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9271.0760333746603</c:v>
+                  <c:v>66749.896025245602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58816.349503653699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56610.3641077391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50426.492714400498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49778.004505163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40990.227360126701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31937.311326250401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29294.952613267498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25474.958857708501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24604.786483953099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22915.3641412258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20024.775250743998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19578.589402526399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18960.342929979699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18913.5364791475</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18881.2614795919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18875.800535583399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17748.440369739601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17446.894762793101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16992.312776508101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16134.4618531949</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16071.0917006414</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14708.342745653499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14646.253214484401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13829.0063087784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13773.2024454692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13569.567044048301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13255.0200992876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13133.769336136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13025.8605175271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12891.043395594501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12719.5658687176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12266.4693332038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12240.823106517901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12079.227194458201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11311.154304244499</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10589.5301558017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10176.6361694143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5635,21 +8965,132 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>65327.815754419098</c:v>
+                  <c:v>148171.641801891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44416.138968549603</c:v>
+                  <c:v>114229.073754978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25111.662946229801</c:v>
+                  <c:v>104143.196189546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9900.32559993416</c:v>
+                  <c:v>97435.782088136606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9271.0760333746603</c:v>
+                  <c:v>66749.896025245602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58816.349503653699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56610.3641077391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50426.492714400498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49778.004505163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40990.227360126701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31937.311326250401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29294.952613267498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25474.958857708501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24604.786483953099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22915.3641412258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20024.775250743998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19578.589402526399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18960.342929979699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18913.5364791475</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18881.2614795919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18875.800535583399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17748.440369739601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17446.894762793101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16992.312776508101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16134.4618531949</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16071.0917006414</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14708.342745653499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14646.253214484401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13829.0063087784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13773.2024454692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13569.567044048301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13255.0200992876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13133.769336136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13025.8605175271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12891.043395594501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12719.5658687176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12266.4693332038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12240.823106517901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12079.227194458201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11311.154304244499</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10589.5301558017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10176.6361694143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5659,21 +9100,132 @@
               <c:f>feats_importance_sorted_by_gain!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1782.4</c:v>
+                  <c:v>2056.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1747.6</c:v>
+                  <c:v>751.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1392.2</c:v>
+                  <c:v>1567.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>588.6</c:v>
+                  <c:v>3817.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.4</c:v>
+                  <c:v>1938.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1416.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1524.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>894.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1403.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1540.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1453.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1590.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1362.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1479.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1104.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1282.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1436.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1276.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1406.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1264.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1347.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>937.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1003.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1260.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>978.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>990.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1193.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1054.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>960.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>823.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>991.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1005.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>974.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>963.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>800.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,21 +9719,132 @@
               <c:f>feats_importance_sorted_by_gain!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1782.4</c:v>
+                  <c:v>2056.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1747.6</c:v>
+                  <c:v>751.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1392.2</c:v>
+                  <c:v>1567.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>588.6</c:v>
+                  <c:v>3817.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.4</c:v>
+                  <c:v>1938.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1416.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1524.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>894.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1403.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1540.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1453.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1590.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1362.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1479.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1104.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1282.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1436.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1276.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1406.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1264.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1347.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>937.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1003.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1260.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>978.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>990.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1193.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1054.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>960.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>823.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>991.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1005.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>974.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>963.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>800.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6191,21 +9854,132 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>65327.815754419098</c:v>
+                  <c:v>148171.641801891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44416.138968549603</c:v>
+                  <c:v>114229.073754978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25111.662946229801</c:v>
+                  <c:v>104143.196189546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9900.32559993416</c:v>
+                  <c:v>97435.782088136606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9271.0760333746603</c:v>
+                  <c:v>66749.896025245602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58816.349503653699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56610.3641077391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50426.492714400498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49778.004505163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40990.227360126701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31937.311326250401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29294.952613267498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25474.958857708501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24604.786483953099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22915.3641412258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20024.775250743998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19578.589402526399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18960.342929979699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18913.5364791475</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18881.2614795919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18875.800535583399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17748.440369739601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17446.894762793101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16992.312776508101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16134.4618531949</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16071.0917006414</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14708.342745653499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14646.253214484401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13829.0063087784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13773.2024454692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13569.567044048301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13255.0200992876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13133.769336136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13025.8605175271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12891.043395594501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12719.5658687176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12266.4693332038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12240.823106517901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12079.227194458201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11311.154304244499</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10589.5301558017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10176.6361694143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8924,9 +12698,19 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J229" totalsRowCount="1">
   <autoFilter ref="A1:J228" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="greaterThan" val="750"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="greaterThan" val="10000"/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="9">
       <customFilters>
-        <customFilter val="*tax*"/>
+        <customFilter val="*appl*"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -8935,29 +12719,29 @@
     <sortCondition descending="1" ref="C2:C228"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{D152CE4C-2FFA-468C-A2F6-1E42808AA677}" name="Description" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{D152CE4C-2FFA-468C-A2F6-1E42808AA677}" name="Description" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Feature]],Table3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="split"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="gain"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rank Split" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rank Split" dataDxfId="6" totalsRowDxfId="1">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[split]],Table1[split])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rank Gain">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[gain]],Table1[gain])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="AvG" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="AvG" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0">
       <calculatedColumnFormula>AVERAGE(E2,F2)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[AvG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6942B34F-8796-4468-A2EA-A645A095DA1E}" name="SUM" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{6942B34F-8796-4468-A2EA-A645A095DA1E}" name="SUM" dataDxfId="4">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[split]],Table1[[#This Row],[gain]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C6A8EB4F-428F-4C1C-902A-8DFF89DAD495}" name="SUM RANK" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{C6A8EB4F-428F-4C1C-902A-8DFF89DAD495}" name="SUM RANK" dataDxfId="3">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[SUM]],Table1[SUM])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DE1BFC30-0C9C-4DA5-BCA1-5BF6E7487520}" name="Table" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{DE1BFC30-0C9C-4DA5-BCA1-5BF6E7487520}" name="Table" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Feature]],Table3[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9298,9 +13082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R162" sqref="R162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9311,6 +13095,7 @@
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="99.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="14" max="14" width="10.90625" customWidth="1"/>
@@ -9622,7 +13407,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>221</v>
       </c>
@@ -9661,7 +13446,7 @@
         <v>train_static, train_applprev_1_0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>220</v>
       </c>
@@ -9739,7 +13524,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>218</v>
       </c>
@@ -9856,7 +13641,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>215</v>
       </c>
@@ -10675,7 +14460,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>194</v>
       </c>
@@ -10714,7 +14499,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>193</v>
       </c>
@@ -11104,7 +14889,7 @@
         <v>train_static, Train_static_cb</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>183</v>
       </c>
@@ -11221,7 +15006,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>180</v>
       </c>
@@ -11338,7 +15123,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>177</v>
       </c>
@@ -11416,7 +15201,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>175</v>
       </c>
@@ -11650,7 +15435,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>169</v>
       </c>
@@ -11767,7 +15552,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>166</v>
       </c>
@@ -12508,7 +16293,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>147</v>
       </c>
@@ -12742,7 +16527,7 @@
         <v>train_credit_bureau_a_1_0.csv, train_credit_bureau_a_1_1.csv, train_credit_bureau_a_1_2.csv, train_static</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>141</v>
       </c>
@@ -13054,7 +16839,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>133</v>
       </c>
@@ -13132,7 +16917,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>131</v>
       </c>
@@ -13288,7 +17073,7 @@
         <v>train_credit_bureau_a_1_0.csv, train_credit_bureau_a_1_1.csv, train_credit_bureau_a_1_2.csv, train_static</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>127</v>
       </c>
@@ -13444,7 +17229,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>123</v>
       </c>
@@ -13639,7 +17424,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>118</v>
       </c>
@@ -13717,7 +17502,7 @@
         <v>Train_person_1, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>116</v>
       </c>
@@ -13795,7 +17580,7 @@
         <v>Can't find in HomeCredit dataset PDF</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -13834,7 +17619,7 @@
         <v>train_static, Train_person_1, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>113</v>
       </c>
@@ -13912,7 +17697,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>111</v>
       </c>
@@ -13951,7 +17736,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>110</v>
       </c>
@@ -14302,7 +18087,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>101</v>
       </c>
@@ -14419,7 +18204,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>98</v>
       </c>
@@ -14458,7 +18243,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>97</v>
       </c>
@@ -14926,7 +18711,7 @@
         <v>Train_static_cb</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>85</v>
       </c>
@@ -14965,7 +18750,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>84</v>
       </c>
@@ -15199,7 +18984,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>78</v>
       </c>
@@ -15238,7 +19023,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>77</v>
       </c>
@@ -15316,7 +19101,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>75</v>
       </c>
@@ -15355,7 +19140,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>74</v>
       </c>
@@ -15472,7 +19257,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>71</v>
       </c>
@@ -15589,7 +19374,7 @@
         <v>train_static, Train_static_cb</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>68</v>
       </c>
@@ -15667,7 +19452,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>66</v>
       </c>
@@ -15745,7 +19530,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>64</v>
       </c>
@@ -15784,7 +19569,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>63</v>
       </c>
@@ -15940,7 +19725,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>59</v>
       </c>
@@ -16057,7 +19842,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>56</v>
       </c>
@@ -16096,7 +19881,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>55</v>
       </c>
@@ -16174,7 +19959,7 @@
         <v>Train_static_cb</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>53</v>
       </c>
@@ -16369,7 +20154,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>48</v>
       </c>
@@ -16564,7 +20349,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>43</v>
       </c>
@@ -16642,7 +20427,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>41</v>
       </c>
@@ -16798,7 +20583,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>37</v>
       </c>
@@ -17266,7 +21051,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>25</v>
       </c>
@@ -18211,7 +21996,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G228">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>113.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18228,8 +22013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F574"/>
   <sheetViews>
-    <sheetView topLeftCell="A536" zoomScale="65" workbookViewId="0">
-      <selection activeCell="C573" sqref="C573"/>
+    <sheetView topLeftCell="A360" zoomScale="65" workbookViewId="0">
+      <selection activeCell="A383" sqref="A383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/helper_files/feats_importance_sorted_by_gain_with_origin_tables.xlsx
+++ b/helper_files/feats_importance_sorted_by_gain_with_origin_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijul\Documents\coding\Work\Kaggle\Home Credit Risk 2024 - Stability\Home_Credit_Kaggle\helper_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1EAF19-AC3D-4F58-BC79-7299A1A2E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11DEC89-D6A4-42B4-959F-8C7AE584E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3965,147 +3965,42 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2056.2</c:v>
+                    <c:v>802</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>751.2</c:v>
+                    <c:v>1699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1567.8</c:v>
+                    <c:v>1027</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3817.4</c:v>
+                    <c:v>1232.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1938.2</c:v>
+                    <c:v>1153.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1416.8</c:v>
+                    <c:v>786.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1700.8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1027</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1524.8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>894.8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1403.6</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1540.2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1453.4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1590.8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1362.6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1479.6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1104.4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1282.6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1436.2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1316</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1276.2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1406.8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1264.4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1347.8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>848</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>937.8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1003.8</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1260.2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1000.4</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>978.6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>990.2</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>867</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1193.2</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1054.8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>960.4</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>823.4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>991.8</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>797</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1005.6</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>974.6</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>963.6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>800.2</c:v>
+                    <c:v>779.4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Date of most recent rejected application by the applicant.</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>The interest rate of the active credit contract.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Cancellation reason of the last application.</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>Sum of all payments made by the client.</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -4116,238 +4011,28 @@
                   <c:pt idx="6">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Initial transaction amount of the credit application.</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Maximum annuity previously obtained by client.</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Credit amount on last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Amount of downpayment.</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Client's primary income amount.</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Date of last payment made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Date of approval on client's most recent previous application.</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Credit amount from the client's last application.</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>lastrejectdate_50D</c:v>
+                    <c:v>max_maxdpdtolerance_577P</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>min_rejectreason_755M</c:v>
+                    <c:v>interestrate_311L</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>lastcancelreason_561M</c:v>
+                    <c:v>mean_outstandingdebt_522A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>min_cancelreason_3545846M</c:v>
+                    <c:v>totalsettled_863A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>max_employedfrom_700D</c:v>
+                    <c:v>min_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                    <c:v>max_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>mean_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>mean_outstandingdebt_522A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>mean_tenor_203L</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>mean_currdebt_94A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>inittransactionamount_650A</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>min_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>mean_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>max_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>lastapprcommoditycat_1041M</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>maxannuity_159A</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>min_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lastrejectcredamount_222A</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>lastrejectcommoditycat_161M</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>mean_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>min_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>max_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>downpmt_116A</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>max_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>min_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>mean_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>mean_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>mean_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>maininc_215A</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>min_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>min_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>max_approvaldate_319D</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>dtlastpmtallstes_4499206D</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>lastapprdate_640D</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>max_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>max_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>lastapprcredamount_781A</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>min_creationdate_885D</c:v>
+                    <c:v>mean_amount_4917619A</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4358,132 +4043,27 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148171.641801891</c:v>
+                  <c:v>63424.894909349001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114229.073754978</c:v>
+                  <c:v>58357.309530599399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104143.196189546</c:v>
+                  <c:v>50426.492714400498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97435.782088136606</c:v>
+                  <c:v>30374.759556597401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66749.896025245602</c:v>
+                  <c:v>19387.6725972801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58816.349503653699</c:v>
+                  <c:v>16548.5998092962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56610.3641077391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50426.492714400498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49778.004505163</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40990.227360126701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31937.311326250401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29294.952613267498</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25474.958857708501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24604.786483953099</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22915.3641412258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20024.775250743998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19578.589402526399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18960.342929979699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18913.5364791475</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18881.2614795919</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18875.800535583399</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17748.440369739601</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17446.894762793101</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16992.312776508101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16134.4618531949</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16071.0917006414</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14708.342745653499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14646.253214484401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13829.0063087784</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13773.2024454692</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13569.567044048301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13255.0200992876</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13133.769336136</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13025.8605175271</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12891.043395594501</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12719.5658687176</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12266.4693332038</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12240.823106517901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12079.227194458201</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11311.154304244499</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10589.5301558017</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10176.6361694143</c:v>
+                  <c:v>13525.1947276353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,147 +4115,42 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2056.2</c:v>
+                    <c:v>802</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>751.2</c:v>
+                    <c:v>1699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1567.8</c:v>
+                    <c:v>1027</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3817.4</c:v>
+                    <c:v>1232.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1938.2</c:v>
+                    <c:v>1153.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1416.8</c:v>
+                    <c:v>786.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1700.8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1027</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1524.8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>894.8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1403.6</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1540.2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1453.4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1590.8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1362.6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1479.6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1104.4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1282.6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1436.2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1316</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1276.2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1406.8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1264.4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1347.8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>848</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>937.8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1003.8</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1260.2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1000.4</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>978.6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>990.2</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>867</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1193.2</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1054.8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>960.4</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>823.4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>991.8</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>797</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1005.6</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>974.6</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>963.6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>800.2</c:v>
+                    <c:v>779.4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Date of most recent rejected application by the applicant.</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>The interest rate of the active credit contract.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Cancellation reason of the last application.</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>Sum of all payments made by the client.</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -4686,238 +4161,28 @@
                   <c:pt idx="6">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Initial transaction amount of the credit application.</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Maximum annuity previously obtained by client.</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Credit amount on last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Amount of downpayment.</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Client's primary income amount.</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Date of last payment made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Date of approval on client's most recent previous application.</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Credit amount from the client's last application.</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>lastrejectdate_50D</c:v>
+                    <c:v>max_maxdpdtolerance_577P</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>min_rejectreason_755M</c:v>
+                    <c:v>interestrate_311L</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>lastcancelreason_561M</c:v>
+                    <c:v>mean_outstandingdebt_522A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>min_cancelreason_3545846M</c:v>
+                    <c:v>totalsettled_863A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>max_employedfrom_700D</c:v>
+                    <c:v>min_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                    <c:v>max_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>mean_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>mean_outstandingdebt_522A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>mean_tenor_203L</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>mean_currdebt_94A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>inittransactionamount_650A</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>min_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>mean_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>max_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>lastapprcommoditycat_1041M</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>maxannuity_159A</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>min_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lastrejectcredamount_222A</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>lastrejectcommoditycat_161M</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>mean_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>min_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>max_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>downpmt_116A</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>max_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>min_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>mean_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>mean_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>mean_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>maininc_215A</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>min_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>min_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>max_approvaldate_319D</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>dtlastpmtallstes_4499206D</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>lastapprdate_640D</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>max_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>max_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>lastapprcredamount_781A</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>min_creationdate_885D</c:v>
+                    <c:v>mean_amount_4917619A</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4928,132 +4193,27 @@
               <c:f>feats_importance_sorted_by_gain!$E$2:$E$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>131</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5105,147 +4265,42 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2056.2</c:v>
+                    <c:v>802</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>751.2</c:v>
+                    <c:v>1699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1567.8</c:v>
+                    <c:v>1027</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3817.4</c:v>
+                    <c:v>1232.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1938.2</c:v>
+                    <c:v>1153.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1416.8</c:v>
+                    <c:v>786.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1700.8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1027</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1524.8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>894.8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1403.6</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1540.2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1453.4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1590.8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1362.6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1479.6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1104.4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1282.6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1436.2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1316</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1276.2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1406.8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1264.4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1347.8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>848</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>937.8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1003.8</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1260.2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1000.4</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>978.6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>990.2</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>867</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1193.2</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1054.8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>960.4</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>823.4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>991.8</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>797</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1005.6</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>974.6</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>963.6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>800.2</c:v>
+                    <c:v>779.4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Date of most recent rejected application by the applicant.</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>The interest rate of the active credit contract.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Cancellation reason of the last application.</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>Sum of all payments made by the client.</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -5256,238 +4311,28 @@
                   <c:pt idx="6">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Initial transaction amount of the credit application.</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Maximum annuity previously obtained by client.</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Credit amount on last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Amount of downpayment.</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Client's primary income amount.</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Date of last payment made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Date of approval on client's most recent previous application.</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Credit amount from the client's last application.</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>lastrejectdate_50D</c:v>
+                    <c:v>max_maxdpdtolerance_577P</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>min_rejectreason_755M</c:v>
+                    <c:v>interestrate_311L</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>lastcancelreason_561M</c:v>
+                    <c:v>mean_outstandingdebt_522A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>min_cancelreason_3545846M</c:v>
+                    <c:v>totalsettled_863A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>max_employedfrom_700D</c:v>
+                    <c:v>min_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                    <c:v>max_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>mean_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>mean_outstandingdebt_522A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>mean_tenor_203L</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>mean_currdebt_94A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>inittransactionamount_650A</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>min_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>mean_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>max_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>lastapprcommoditycat_1041M</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>maxannuity_159A</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>min_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lastrejectcredamount_222A</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>lastrejectcommoditycat_161M</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>mean_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>min_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>max_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>downpmt_116A</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>max_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>min_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>mean_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>mean_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>mean_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>maininc_215A</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>min_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>min_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>max_approvaldate_319D</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>dtlastpmtallstes_4499206D</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>lastapprdate_640D</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>max_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>max_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>lastapprcredamount_781A</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>min_creationdate_885D</c:v>
+                    <c:v>mean_amount_4917619A</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5498,132 +4343,27 @@
               <c:f>feats_importance_sorted_by_gain!$F$2:$F$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>188</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5675,147 +4415,42 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2056.2</c:v>
+                    <c:v>802</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>751.2</c:v>
+                    <c:v>1699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1567.8</c:v>
+                    <c:v>1027</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3817.4</c:v>
+                    <c:v>1232.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1938.2</c:v>
+                    <c:v>1153.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1416.8</c:v>
+                    <c:v>786.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1700.8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1027</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1524.8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>894.8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1403.6</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1540.2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1453.4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1590.8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1362.6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1479.6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1104.4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1282.6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1436.2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1316</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1276.2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1406.8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1264.4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1347.8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>848</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>937.8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1003.8</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1260.2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1000.4</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>978.6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>990.2</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>867</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1193.2</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1054.8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>960.4</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>823.4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>991.8</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>797</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1005.6</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>974.6</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>963.6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>800.2</c:v>
+                    <c:v>779.4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Date of most recent rejected application by the applicant.</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>The interest rate of the active credit contract.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Cancellation reason of the last application.</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>Sum of all payments made by the client.</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -5826,238 +4461,28 @@
                   <c:pt idx="6">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Initial transaction amount of the credit application.</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Maximum annuity previously obtained by client.</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Credit amount on last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Amount of downpayment.</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Client's primary income amount.</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Date of last payment made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Date of approval on client's most recent previous application.</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Credit amount from the client's last application.</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>lastrejectdate_50D</c:v>
+                    <c:v>max_maxdpdtolerance_577P</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>min_rejectreason_755M</c:v>
+                    <c:v>interestrate_311L</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>lastcancelreason_561M</c:v>
+                    <c:v>mean_outstandingdebt_522A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>min_cancelreason_3545846M</c:v>
+                    <c:v>totalsettled_863A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>max_employedfrom_700D</c:v>
+                    <c:v>min_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                    <c:v>max_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>mean_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>mean_outstandingdebt_522A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>mean_tenor_203L</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>mean_currdebt_94A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>inittransactionamount_650A</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>min_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>mean_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>max_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>lastapprcommoditycat_1041M</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>maxannuity_159A</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>min_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lastrejectcredamount_222A</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>lastrejectcommoditycat_161M</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>mean_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>min_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>max_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>downpmt_116A</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>max_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>min_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>mean_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>mean_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>mean_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>maininc_215A</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>min_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>min_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>max_approvaldate_319D</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>dtlastpmtallstes_4499206D</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>lastapprdate_640D</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>max_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>max_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>lastapprcredamount_781A</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>min_creationdate_885D</c:v>
+                    <c:v>mean_amount_4917619A</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6068,132 +4493,27 @@
               <c:f>feats_importance_sorted_by_gain!$G$2:$G$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.5</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>69.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>73.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>129.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>122.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>144.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>129.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>139.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>159.5</c:v>
+                  <c:v>148.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6245,147 +4565,42 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2056.2</c:v>
+                    <c:v>802</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>751.2</c:v>
+                    <c:v>1699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1567.8</c:v>
+                    <c:v>1027</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3817.4</c:v>
+                    <c:v>1232.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1938.2</c:v>
+                    <c:v>1153.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1416.8</c:v>
+                    <c:v>786.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1700.8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1027</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1524.8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>894.8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1403.6</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1540.2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1453.4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1590.8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1362.6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1479.6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1104.4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1282.6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1436.2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1316</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1276.2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1406.8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1264.4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1347.8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>848</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>937.8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1003.8</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1260.2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1000.4</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>978.6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>990.2</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>867</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1193.2</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1054.8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>960.4</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>823.4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>991.8</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>797</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1005.6</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>974.6</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>963.6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>800.2</c:v>
+                    <c:v>779.4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Date of most recent rejected application by the applicant.</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>The interest rate of the active credit contract.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Cancellation reason of the last application.</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>Sum of all payments made by the client.</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -6396,238 +4611,28 @@
                   <c:pt idx="6">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Initial transaction amount of the credit application.</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Maximum annuity previously obtained by client.</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Credit amount on last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Amount of downpayment.</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Client's primary income amount.</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Date of last payment made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Date of approval on client's most recent previous application.</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Credit amount from the client's last application.</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>lastrejectdate_50D</c:v>
+                    <c:v>max_maxdpdtolerance_577P</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>min_rejectreason_755M</c:v>
+                    <c:v>interestrate_311L</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>lastcancelreason_561M</c:v>
+                    <c:v>mean_outstandingdebt_522A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>min_cancelreason_3545846M</c:v>
+                    <c:v>totalsettled_863A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>max_employedfrom_700D</c:v>
+                    <c:v>min_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                    <c:v>max_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>mean_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>mean_outstandingdebt_522A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>mean_tenor_203L</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>mean_currdebt_94A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>inittransactionamount_650A</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>min_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>mean_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>max_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>lastapprcommoditycat_1041M</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>maxannuity_159A</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>min_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lastrejectcredamount_222A</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>lastrejectcommoditycat_161M</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>mean_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>min_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>max_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>downpmt_116A</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>max_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>min_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>mean_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>mean_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>mean_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>maininc_215A</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>min_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>min_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>max_approvaldate_319D</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>dtlastpmtallstes_4499206D</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>lastapprdate_640D</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>max_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>max_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>lastapprcredamount_781A</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>min_creationdate_885D</c:v>
+                    <c:v>mean_amount_4917619A</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6638,132 +4643,27 @@
               <c:f>feats_importance_sorted_by_gain!$H$2:$H$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>150227.84180189102</c:v>
+                  <c:v>64226.894909349001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114980.273754978</c:v>
+                  <c:v>60056.309530599399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105710.996189546</c:v>
+                  <c:v>51453.492714400498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101253.1820881366</c:v>
+                  <c:v>31606.959556597401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68688.096025245599</c:v>
+                  <c:v>20541.272597280098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60233.149503653702</c:v>
+                  <c:v>17334.999809296201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58311.164107739103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51453.492714400498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51302.804505163003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41885.027360126704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33340.911326250403</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30835.152613267499</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26928.358857708503</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26195.586483953099</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24277.964141225799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21504.375250743997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20682.9894025264</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20242.942929979698</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20349.736479147501</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20197.2614795919</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20152.0005355834</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19155.2403697396</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18711.294762793103</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18340.1127765081</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16982.461853194902</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17008.891700641401</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15712.142745653498</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15906.453214484402</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14829.4063087784</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14751.8024454692</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14559.767044048302</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14122.0200992876</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14326.969336136</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14080.6605175271</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13851.443395594501</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13542.9658687176</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13258.2693332038</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13037.823106517901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13084.827194458201</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12285.7543042445</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11553.1301558017</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10976.8361694143</c:v>
+                  <c:v>14304.5947276353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6815,147 +4715,42 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2056.2</c:v>
+                    <c:v>802</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>751.2</c:v>
+                    <c:v>1699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1567.8</c:v>
+                    <c:v>1027</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3817.4</c:v>
+                    <c:v>1232.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1938.2</c:v>
+                    <c:v>1153.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1416.8</c:v>
+                    <c:v>786.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1700.8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1027</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1524.8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>894.8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1403.6</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1540.2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1453.4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1590.8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1362.6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1479.6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1104.4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1282.6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1436.2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1316</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1276.2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1406.8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1264.4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1347.8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>848</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>937.8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1003.8</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1260.2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1000.4</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>978.6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>990.2</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>867</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1193.2</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1054.8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>960.4</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>823.4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>991.8</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>797</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1005.6</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>974.6</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>963.6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>800.2</c:v>
+                    <c:v>779.4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Date of most recent rejected application by the applicant.</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>The interest rate of the active credit contract.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Cancellation reason of the last application.</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>Sum of all payments made by the client.</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -6966,238 +4761,28 @@
                   <c:pt idx="6">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Initial transaction amount of the credit application.</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Maximum annuity previously obtained by client.</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Credit amount on last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Amount of downpayment.</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Client's primary income amount.</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Date of last payment made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Date of approval on client's most recent previous application.</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Credit amount from the client's last application.</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>lastrejectdate_50D</c:v>
+                    <c:v>max_maxdpdtolerance_577P</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>min_rejectreason_755M</c:v>
+                    <c:v>interestrate_311L</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>lastcancelreason_561M</c:v>
+                    <c:v>mean_outstandingdebt_522A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>min_cancelreason_3545846M</c:v>
+                    <c:v>totalsettled_863A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>max_employedfrom_700D</c:v>
+                    <c:v>min_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                    <c:v>max_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>mean_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>mean_outstandingdebt_522A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>mean_tenor_203L</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>mean_currdebt_94A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>inittransactionamount_650A</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>min_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>mean_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>max_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>lastapprcommoditycat_1041M</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>maxannuity_159A</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>min_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lastrejectcredamount_222A</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>lastrejectcommoditycat_161M</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>mean_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>min_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>max_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>downpmt_116A</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>max_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>min_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>mean_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>mean_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>mean_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>maininc_215A</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>min_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>min_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>max_approvaldate_319D</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>dtlastpmtallstes_4499206D</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>lastapprdate_640D</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>max_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>max_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>lastapprcredamount_781A</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>min_creationdate_885D</c:v>
+                    <c:v>mean_amount_4917619A</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7208,132 +4793,27 @@
               <c:f>feats_importance_sorted_by_gain!$I$2:$I$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>188</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7389,147 +4869,42 @@
             <c:multiLvlStrRef>
               <c:f>feats_importance_sorted_by_gain!$A$2:$C$228</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2056.2</c:v>
+                    <c:v>802</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>751.2</c:v>
+                    <c:v>1699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1567.8</c:v>
+                    <c:v>1027</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3817.4</c:v>
+                    <c:v>1232.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1938.2</c:v>
+                    <c:v>1153.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1416.8</c:v>
+                    <c:v>786.4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1700.8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1027</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1524.8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>894.8</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1403.6</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1540.2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1453.4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1590.8</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>1362.6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>1479.6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>1104.4</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1282.6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1436.2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>1316</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>1276.2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>1406.8</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>1264.4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>1347.8</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>848</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>937.8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1003.8</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1260.2</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1000.4</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>978.6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>990.2</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>867</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1193.2</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1054.8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>960.4</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>823.4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>991.8</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>797</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>1005.6</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>974.6</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>963.6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>800.2</c:v>
+                    <c:v>779.4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Date of most recent rejected application by the applicant.</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>The interest rate of the active credit contract.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Cancellation reason of the last application.</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>Sum of all payments made by the client.</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -7540,238 +4915,28 @@
                   <c:pt idx="6">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Initial transaction amount of the credit application.</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Commodity category of the last loan applications made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Maximum annuity previously obtained by client.</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Credit amount on last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Category of commodity in the applicant's last rejected application.</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Amount of downpayment.</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Client's primary income amount.</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Date of last payment made by the applicant.</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Date of approval on client's most recent previous application.</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Credit amount from the client's last application.</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>lastrejectdate_50D</c:v>
+                    <c:v>max_maxdpdtolerance_577P</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>min_rejectreason_755M</c:v>
+                    <c:v>interestrate_311L</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>lastcancelreason_561M</c:v>
+                    <c:v>mean_outstandingdebt_522A</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>min_cancelreason_3545846M</c:v>
+                    <c:v>totalsettled_863A</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>max_employedfrom_700D</c:v>
+                    <c:v>min_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>max_firstnonzeroinstldate_307D</c:v>
+                    <c:v>max_amount_4917619A</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>mean_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>mean_outstandingdebt_522A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>mean_tenor_203L</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>mean_currdebt_94A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>inittransactionamount_650A</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>min_employedfrom_700D</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>mean_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>max_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>lastapprcommoditycat_1041M</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>maxannuity_159A</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>mean_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>min_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lastrejectcredamount_222A</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>max_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>lastrejectcommoditycat_161M</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>mean_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>min_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>max_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>downpmt_116A</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>max_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>min_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>mean_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>mean_dtlastpmt_581D</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>min_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>mean_dtlastpmtallstes_3545839D</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>mean_creationdate_885D</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>maininc_215A</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>min_annuity_853A</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>min_firstnonzeroinstldate_307D</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>max_approvaldate_319D</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>dtlastpmtallstes_4499206D</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>lastapprdate_640D</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>max_credamount_590A</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>max_mainoccupationinc_437A</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>lastapprcredamount_781A</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>min_creationdate_885D</c:v>
+                    <c:v>mean_amount_4917619A</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7782,7 +4947,7 @@
               <c:f>feats_importance_sorted_by_gain!$J$2:$J$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7802,111 +4967,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8258,132 +5318,27 @@
               <c:f>feats_importance_sorted_by_gain!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2056.1999999999998</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>751.2</c:v>
+                  <c:v>1699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1567.8</c:v>
+                  <c:v>1027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3817.4</c:v>
+                  <c:v>1232.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1938.2</c:v>
+                  <c:v>1153.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1416.8</c:v>
+                  <c:v>786.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1700.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1524.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>894.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1403.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1540.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1453.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1590.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1362.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1479.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1104.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1282.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1436.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1316</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1276.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1406.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1264.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1347.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>848</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>937.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1003.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1260.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>978.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>990.2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>867</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1193.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1054.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>960.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>823.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>991.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1005.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>974.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>963.6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>800.2</c:v>
+                  <c:v>779.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8393,132 +5348,27 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148171.641801891</c:v>
+                  <c:v>63424.894909349001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114229.073754978</c:v>
+                  <c:v>58357.309530599399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104143.196189546</c:v>
+                  <c:v>50426.492714400498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97435.782088136606</c:v>
+                  <c:v>30374.759556597401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66749.896025245602</c:v>
+                  <c:v>19387.6725972801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58816.349503653699</c:v>
+                  <c:v>16548.5998092962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56610.3641077391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50426.492714400498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49778.004505163</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40990.227360126701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31937.311326250401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29294.952613267498</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25474.958857708501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24604.786483953099</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22915.3641412258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20024.775250743998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19578.589402526399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18960.342929979699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18913.5364791475</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18881.2614795919</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18875.800535583399</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17748.440369739601</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17446.894762793101</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16992.312776508101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16134.4618531949</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16071.0917006414</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14708.342745653499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14646.253214484401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13829.0063087784</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13773.2024454692</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13569.567044048301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13255.0200992876</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13133.769336136</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13025.8605175271</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12891.043395594501</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12719.5658687176</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12266.4693332038</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12240.823106517901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12079.227194458201</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11311.154304244499</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10589.5301558017</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10176.6361694143</c:v>
+                  <c:v>13525.1947276353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8965,132 +5815,27 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148171.641801891</c:v>
+                  <c:v>63424.894909349001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114229.073754978</c:v>
+                  <c:v>58357.309530599399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104143.196189546</c:v>
+                  <c:v>50426.492714400498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97435.782088136606</c:v>
+                  <c:v>30374.759556597401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66749.896025245602</c:v>
+                  <c:v>19387.6725972801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58816.349503653699</c:v>
+                  <c:v>16548.5998092962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56610.3641077391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50426.492714400498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49778.004505163</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40990.227360126701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31937.311326250401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29294.952613267498</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25474.958857708501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24604.786483953099</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22915.3641412258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20024.775250743998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19578.589402526399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18960.342929979699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18913.5364791475</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18881.2614795919</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18875.800535583399</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17748.440369739601</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17446.894762793101</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16992.312776508101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16134.4618531949</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16071.0917006414</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14708.342745653499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14646.253214484401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13829.0063087784</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13773.2024454692</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13569.567044048301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13255.0200992876</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13133.769336136</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13025.8605175271</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12891.043395594501</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12719.5658687176</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12266.4693332038</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12240.823106517901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12079.227194458201</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11311.154304244499</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10589.5301558017</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10176.6361694143</c:v>
+                  <c:v>13525.1947276353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9100,132 +5845,27 @@
               <c:f>feats_importance_sorted_by_gain!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2056.1999999999998</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>751.2</c:v>
+                  <c:v>1699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1567.8</c:v>
+                  <c:v>1027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3817.4</c:v>
+                  <c:v>1232.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1938.2</c:v>
+                  <c:v>1153.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1416.8</c:v>
+                  <c:v>786.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1700.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1524.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>894.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1403.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1540.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1453.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1590.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1362.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1479.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1104.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1282.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1436.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1316</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1276.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1406.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1264.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1347.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>848</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>937.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1003.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1260.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>978.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>990.2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>867</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1193.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1054.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>960.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>823.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>991.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1005.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>974.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>963.6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>800.2</c:v>
+                  <c:v>779.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9719,132 +6359,27 @@
               <c:f>feats_importance_sorted_by_gain!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2056.1999999999998</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>751.2</c:v>
+                  <c:v>1699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1567.8</c:v>
+                  <c:v>1027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3817.4</c:v>
+                  <c:v>1232.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1938.2</c:v>
+                  <c:v>1153.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1416.8</c:v>
+                  <c:v>786.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1700.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1524.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>894.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1403.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1540.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1453.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1590.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1362.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1479.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1104.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1282.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1436.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1316</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1276.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1406.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1264.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1347.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>848</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>937.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1003.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1260.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>978.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>990.2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>867</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1193.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1054.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>960.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>823.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>991.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1005.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>974.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>963.6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>800.2</c:v>
+                  <c:v>779.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9854,132 +6389,27 @@
               <c:f>feats_importance_sorted_by_gain!$D$2:$D$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148171.641801891</c:v>
+                  <c:v>63424.894909349001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114229.073754978</c:v>
+                  <c:v>58357.309530599399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104143.196189546</c:v>
+                  <c:v>50426.492714400498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97435.782088136606</c:v>
+                  <c:v>30374.759556597401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66749.896025245602</c:v>
+                  <c:v>19387.6725972801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58816.349503653699</c:v>
+                  <c:v>16548.5998092962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56610.3641077391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50426.492714400498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49778.004505163</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40990.227360126701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31937.311326250401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29294.952613267498</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25474.958857708501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24604.786483953099</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22915.3641412258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20024.775250743998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19578.589402526399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18960.342929979699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18913.5364791475</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18881.2614795919</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18875.800535583399</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17748.440369739601</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17446.894762793101</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16992.312776508101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16134.4618531949</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16071.0917006414</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14708.342745653499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14646.253214484401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13829.0063087784</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13773.2024454692</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13569.567044048301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13255.0200992876</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13133.769336136</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13025.8605175271</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12891.043395594501</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12719.5658687176</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12266.4693332038</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12240.823106517901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12079.227194458201</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11311.154304244499</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10589.5301558017</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10176.6361694143</c:v>
+                  <c:v>13525.1947276353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12710,7 +9140,7 @@
     </filterColumn>
     <filterColumn colId="9">
       <customFilters>
-        <customFilter val="*appl*"/>
+        <customFilter val="*credit*"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -13082,9 +9512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R162" sqref="R162"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13407,7 +9837,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>221</v>
       </c>
@@ -13446,7 +9876,7 @@
         <v>train_static, train_applprev_1_0.csv</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>220</v>
       </c>
@@ -13524,7 +9954,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>218</v>
       </c>
@@ -13641,7 +10071,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>215</v>
       </c>
@@ -14460,7 +10890,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>194</v>
       </c>
@@ -14577,7 +11007,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>191</v>
       </c>
@@ -14889,7 +11319,7 @@
         <v>train_static, Train_static_cb</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>183</v>
       </c>
@@ -14928,7 +11358,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>182</v>
       </c>
@@ -15006,7 +11436,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>180</v>
       </c>
@@ -15201,7 +11631,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>175</v>
       </c>
@@ -15552,7 +11982,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>166</v>
       </c>
@@ -16293,7 +12723,7 @@
         <v>Train_person_1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>147</v>
       </c>
@@ -16488,7 +12918,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>142</v>
       </c>
@@ -16527,7 +12957,7 @@
         <v>train_credit_bureau_a_1_0.csv, train_credit_bureau_a_1_1.csv, train_credit_bureau_a_1_2.csv, train_static</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>141</v>
       </c>
@@ -16839,7 +13269,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>133</v>
       </c>
@@ -17073,7 +13503,7 @@
         <v>train_credit_bureau_a_1_0.csv, train_credit_bureau_a_1_1.csv, train_credit_bureau_a_1_2.csv, train_static</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>127</v>
       </c>
@@ -17229,7 +13659,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>123</v>
       </c>
@@ -17424,7 +13854,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>118</v>
       </c>
@@ -17502,7 +13932,7 @@
         <v>Train_person_1, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>116</v>
       </c>
@@ -17541,7 +13971,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>115</v>
       </c>
@@ -17580,7 +14010,7 @@
         <v>Can't find in HomeCredit dataset PDF</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -17619,7 +14049,7 @@
         <v>train_static, Train_person_1, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>113</v>
       </c>
@@ -17697,7 +14127,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>111</v>
       </c>
@@ -17736,7 +14166,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>110</v>
       </c>
@@ -18087,7 +14517,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>101</v>
       </c>
@@ -18204,7 +14634,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>98</v>
       </c>
@@ -18243,7 +14673,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>97</v>
       </c>
@@ -18438,7 +14868,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>92</v>
       </c>
@@ -18711,7 +15141,7 @@
         <v>Train_static_cb</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>85</v>
       </c>
@@ -18750,7 +15180,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>84</v>
       </c>
@@ -18984,7 +15414,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>78</v>
       </c>
@@ -19023,7 +15453,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>77</v>
       </c>
@@ -19101,7 +15531,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>75</v>
       </c>
@@ -19140,7 +15570,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>74</v>
       </c>
@@ -19257,7 +15687,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>71</v>
       </c>
@@ -19296,7 +15726,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>70</v>
       </c>
@@ -19374,7 +15804,7 @@
         <v>train_static, Train_static_cb</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>68</v>
       </c>
@@ -19452,7 +15882,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>66</v>
       </c>
@@ -19530,7 +15960,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>64</v>
       </c>
@@ -19569,7 +15999,7 @@
         <v>train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>63</v>
       </c>
@@ -19725,7 +16155,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>59</v>
       </c>
@@ -19842,7 +16272,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>56</v>
       </c>
@@ -19881,7 +16311,7 @@
         <v>train_static, train_applprev_1_0.csv, train_applprev_1_1.csv</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>55</v>
       </c>
@@ -19959,7 +16389,7 @@
         <v>Train_static_cb</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>53</v>
       </c>
@@ -20154,7 +16584,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>48</v>
       </c>
@@ -20349,7 +16779,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>43</v>
       </c>
@@ -20427,7 +16857,7 @@
         <v>train_static</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>41</v>
       </c>
